--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf1-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf1-Acvr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Gdf1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>0.02061</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2011300758263314</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2011300758263313</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.206141000000001</v>
+        <v>7.004922666666666</v>
       </c>
       <c r="N2">
-        <v>24.618423</v>
+        <v>21.014768</v>
       </c>
       <c r="O2">
-        <v>0.1726874201070044</v>
+        <v>0.134029393318039</v>
       </c>
       <c r="P2">
-        <v>0.185725470694853</v>
+        <v>0.1464771065395205</v>
       </c>
       <c r="Q2">
-        <v>0.05637618867000001</v>
+        <v>0.04812381872</v>
       </c>
       <c r="R2">
-        <v>0.50738569803</v>
+        <v>0.43311436848</v>
       </c>
       <c r="S2">
-        <v>0.1726874201070044</v>
+        <v>0.02695734204101436</v>
       </c>
       <c r="T2">
-        <v>0.185725470694853</v>
+        <v>0.02946095154511537</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.02061</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2011300758263314</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.2011300758263313</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>59.522376</v>
       </c>
       <c r="O3">
-        <v>0.4175233137426827</v>
+        <v>0.3796257919253833</v>
       </c>
       <c r="P3">
-        <v>0.4490466874939968</v>
+        <v>0.4148827819958515</v>
       </c>
       <c r="Q3">
         <v>0.13630624104</v>
@@ -638,10 +638,10 @@
         <v>1.22675616936</v>
       </c>
       <c r="S3">
-        <v>0.4175233137426827</v>
+        <v>0.07635416431558342</v>
       </c>
       <c r="T3">
-        <v>0.4490466874939968</v>
+        <v>0.08344540540186492</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,10 +670,10 @@
         <v>0.02061</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2011300758263314</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.2011300758263313</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.442508333333333</v>
+        <v>6.293636666666667</v>
       </c>
       <c r="N4">
-        <v>13.327525</v>
+        <v>18.88091</v>
       </c>
       <c r="O4">
-        <v>0.09348673181306549</v>
+        <v>0.12041993100245</v>
       </c>
       <c r="P4">
-        <v>0.100545061469714</v>
+        <v>0.1316036924905903</v>
       </c>
       <c r="Q4">
-        <v>0.03052003225</v>
+        <v>0.04323728390000001</v>
       </c>
       <c r="R4">
-        <v>0.27468029025</v>
+        <v>0.3891355551</v>
       </c>
       <c r="S4">
-        <v>0.09348673181306549</v>
+        <v>0.02422006985352437</v>
       </c>
       <c r="T4">
-        <v>0.100545061469714</v>
+        <v>0.02646946064965762</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,10 +732,10 @@
         <v>0.02061</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.2011300758263314</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.2011300758263313</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.0078485</v>
+        <v>13.324299</v>
       </c>
       <c r="N5">
-        <v>20.015697</v>
+        <v>26.648598</v>
       </c>
       <c r="O5">
-        <v>0.2106019794549903</v>
+        <v>0.2549418168249328</v>
       </c>
       <c r="P5">
-        <v>0.1510017415254648</v>
+        <v>0.1857460205306503</v>
       </c>
       <c r="Q5">
-        <v>0.06875391919500001</v>
+        <v>0.09153793413</v>
       </c>
       <c r="R5">
-        <v>0.4125235151700001</v>
+        <v>0.54922760478</v>
       </c>
       <c r="S5">
-        <v>0.2106019794549903</v>
+        <v>0.05127646694930142</v>
       </c>
       <c r="T5">
-        <v>0.1510017415254648</v>
+        <v>0.03735911119376898</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -794,10 +794,10 @@
         <v>0.02061</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.2011300758263314</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.2011300758263313</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,338 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.022911666666666</v>
+        <v>5.800427666666667</v>
       </c>
       <c r="N6">
-        <v>15.068735</v>
+        <v>17.401283</v>
       </c>
       <c r="O6">
-        <v>0.1057005548822571</v>
+        <v>0.110983066929195</v>
       </c>
       <c r="P6">
-        <v>0.1136810388159715</v>
+        <v>0.1212903984433873</v>
       </c>
       <c r="Q6">
-        <v>0.03450740315</v>
+        <v>0.03984893807</v>
       </c>
       <c r="R6">
-        <v>0.31056662835</v>
+        <v>0.35864044263</v>
       </c>
       <c r="S6">
-        <v>0.1057005548822571</v>
+        <v>0.02232203266690779</v>
       </c>
       <c r="T6">
-        <v>0.1136810388159715</v>
+        <v>0.02439514703592444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.027287</v>
+      </c>
+      <c r="H7">
+        <v>0.081861</v>
+      </c>
+      <c r="I7">
+        <v>0.7988699241736688</v>
+      </c>
+      <c r="J7">
+        <v>0.7988699241736686</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>7.004922666666666</v>
+      </c>
+      <c r="N7">
+        <v>21.014768</v>
+      </c>
+      <c r="O7">
+        <v>0.134029393318039</v>
+      </c>
+      <c r="P7">
+        <v>0.1464771065395205</v>
+      </c>
+      <c r="Q7">
+        <v>0.1911433248053333</v>
+      </c>
+      <c r="R7">
+        <v>1.720289923248</v>
+      </c>
+      <c r="S7">
+        <v>0.1070720512770246</v>
+      </c>
+      <c r="T7">
+        <v>0.1170161549944051</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.027287</v>
+      </c>
+      <c r="H8">
+        <v>0.081861</v>
+      </c>
+      <c r="I8">
+        <v>0.7988699241736688</v>
+      </c>
+      <c r="J8">
+        <v>0.7988699241736686</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>19.840792</v>
+      </c>
+      <c r="N8">
+        <v>59.522376</v>
+      </c>
+      <c r="O8">
+        <v>0.3796257919253833</v>
+      </c>
+      <c r="P8">
+        <v>0.4148827819958515</v>
+      </c>
+      <c r="Q8">
+        <v>0.541395691304</v>
+      </c>
+      <c r="R8">
+        <v>4.872561221736</v>
+      </c>
+      <c r="S8">
+        <v>0.3032716276097999</v>
+      </c>
+      <c r="T8">
+        <v>0.3314373765939866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.027287</v>
+      </c>
+      <c r="H9">
+        <v>0.081861</v>
+      </c>
+      <c r="I9">
+        <v>0.7988699241736688</v>
+      </c>
+      <c r="J9">
+        <v>0.7988699241736686</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>6.293636666666667</v>
+      </c>
+      <c r="N9">
+        <v>18.88091</v>
+      </c>
+      <c r="O9">
+        <v>0.12041993100245</v>
+      </c>
+      <c r="P9">
+        <v>0.1316036924905903</v>
+      </c>
+      <c r="Q9">
+        <v>0.1717344637233334</v>
+      </c>
+      <c r="R9">
+        <v>1.54561017351</v>
+      </c>
+      <c r="S9">
+        <v>0.09619986114892569</v>
+      </c>
+      <c r="T9">
+        <v>0.1051342318409327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.027287</v>
+      </c>
+      <c r="H10">
+        <v>0.081861</v>
+      </c>
+      <c r="I10">
+        <v>0.7988699241736688</v>
+      </c>
+      <c r="J10">
+        <v>0.7988699241736686</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>13.324299</v>
+      </c>
+      <c r="N10">
+        <v>26.648598</v>
+      </c>
+      <c r="O10">
+        <v>0.2549418168249328</v>
+      </c>
+      <c r="P10">
+        <v>0.1857460205306503</v>
+      </c>
+      <c r="Q10">
+        <v>0.363580146813</v>
+      </c>
+      <c r="R10">
+        <v>2.181480880878</v>
+      </c>
+      <c r="S10">
+        <v>0.2036653498756315</v>
+      </c>
+      <c r="T10">
+        <v>0.1483869093368813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.027287</v>
+      </c>
+      <c r="H11">
+        <v>0.081861</v>
+      </c>
+      <c r="I11">
+        <v>0.7988699241736688</v>
+      </c>
+      <c r="J11">
+        <v>0.7988699241736686</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.800427666666667</v>
+      </c>
+      <c r="N11">
+        <v>17.401283</v>
+      </c>
+      <c r="O11">
+        <v>0.110983066929195</v>
+      </c>
+      <c r="P11">
+        <v>0.1212903984433873</v>
+      </c>
+      <c r="Q11">
+        <v>0.1582762697403333</v>
+      </c>
+      <c r="R11">
+        <v>1.424486427663</v>
+      </c>
+      <c r="S11">
+        <v>0.08866103426228719</v>
+      </c>
+      <c r="T11">
+        <v>0.09689525140746291</v>
       </c>
     </row>
   </sheetData>
